--- a/Requirments/Mapping Document.xlsx
+++ b/Requirments/Mapping Document.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Young Wook\Google Drive\Per_Scholas\DE1\Stuffs\assignments_exercises\case study\DE-Case-Study-Student\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CDW_SAPP_D_CUSTOMER" sheetId="1" r:id="rId1"/>
@@ -17,12 +12,12 @@
     <sheet name="CDW_SAPP_D_TIME" sheetId="3" r:id="rId3"/>
     <sheet name="CDW_SAPP_F_CREDIT_CARD" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="128">
   <si>
     <t>CDW_SAPP_D_CUSTOMER</t>
   </si>
@@ -106,9 +101,6 @@
   </si>
   <si>
     <t>STREET_NAME,APT_NO</t>
-  </si>
-  <si>
-    <t>Concatenate Apartment no and Street name of customer's Residence with comma as a seperator</t>
   </si>
   <si>
     <t>Apartment no and Street name of customer's Residence</t>
@@ -410,17 +402,14 @@
     <t>Convert DAY, MONTH, and YEAR into a TIMEID (YYYYMMDD)</t>
   </si>
   <si>
-    <t>TRANSACTION_ID</t>
-  </si>
-  <si>
-    <t>Uniquely identifies a transaction</t>
+    <t>Concatenate Apartment no and Street name of customer's Residence with comma as a seperator (Street, Apartment)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,17 +441,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -512,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -544,16 +522,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,7 +582,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -646,10 +614,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -681,7 +648,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -857,14 +823,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="42.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.28515625" style="4"/>
     <col min="2" max="2" width="17.140625" style="4" bestFit="1" customWidth="1"/>
@@ -877,178 +843,178 @@
     <col min="9" max="16384" width="42.28515625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>5</v>
@@ -1060,7 +1026,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1086,7 +1052,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1112,7 +1078,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1138,7 +1104,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1164,7 +1130,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1172,13 +1138,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>5</v>
@@ -1190,7 +1156,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1216,12 +1182,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
@@ -1236,10 +1202,10 @@
         <v>5</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1249,14 +1215,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="42.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.28515625" style="4"/>
     <col min="2" max="2" width="17.140625" style="4" bestFit="1" customWidth="1"/>
@@ -1269,221 +1235,221 @@
     <col min="9" max="16384" width="42.28515625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="3" customFormat="1">
       <c r="A2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" s="8" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>71</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>80</v>
-      </c>
       <c r="F7" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
@@ -1495,13 +1461,13 @@
         <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1511,15 +1477,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <selection pane="topRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="42.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.28515625" style="4"/>
     <col min="2" max="2" width="17.140625" style="4" bestFit="1" customWidth="1"/>
@@ -1532,161 +1498,161 @@
     <col min="9" max="16384" width="42.28515625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="3" customFormat="1">
       <c r="A2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="8" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="H4" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="D5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="H5" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="F6" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1696,232 +1662,207 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="42.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.28515625" style="4"/>
     <col min="2" max="2" width="21.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="28" style="4" customWidth="1"/>
+    <col min="5" max="5" width="54.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" style="4" customWidth="1"/>
     <col min="9" max="16384" width="42.28515625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="25.5">
+      <c r="A2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="C2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="F4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="11" t="s">
+      <c r="G6" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>112</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1931,12 +1872,56 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ApprovalStatus xmlns="05686ec9-621b-4d4e-b044-e44970800757">Approved</ApprovalStatus>
+    <AssociateID xmlns="05686ec9-621b-4d4e-b044-e44970800757">CTS\197602</AssociateID>
+    <UnmappedDocuments xmlns="05686ec9-621b-4d4e-b044-e44970800757">false</UnmappedDocuments>
+    <CopyToPath xmlns="05686ec9-621b-4d4e-b044-e44970800757">https://cognizant20.cognizant.com/cts/Cognizant Academy/DSC/Java Solutions/CAT 4.0 IDP Think Lab-Project Case Studies/EIM/Exercise</CopyToPath>
+    <CreatedTime xmlns="05686ec9-621b-4d4e-b044-e44970800757">2015-06-03T11:46:16+00:00</CreatedTime>
+    <MBID xmlns="05686ec9-621b-4d4e-b044-e44970800757">DS_ded283ad-3570-4264-a1a1-ea45aab841ad</MBID>
+    <ClientSupplied xmlns="05686ec9-621b-4d4e-b044-e44970800757">false</ClientSupplied>
+    <Comments xmlns="05686ec9-621b-4d4e-b044-e44970800757">CTS\197602</Comments>
+    <Work_x0020_request xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
+    <_x0043_M4 xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
+    <ViewCount xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
+    <Rating1 xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
+    <_x0043_M5 xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
+    <Rating2 xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
+    <_x0043_M6 xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
+    <Rating3 xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
+    <_x0043_M7 xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
+    <CheckedOutPath xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
+    <ProjectID xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
+    <Releases xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
+    <Phase xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
+    <_x0043_M8 xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
+    <_x0043_M9 xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
+    <Activities xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
+    <CopySource xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
+    <SubProjectID xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
+    <Functional_x0020_Module3 xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
+    <BaselinedVersions xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
+    <_x0043_M10 xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
+    <Functional_x0020_Modules xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
+    <Functional_x0020_Module2 xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
+    <ArtifactStatus xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
+    <ReasonforRejection xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
+    <FolderPath xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
+    <Rating4 xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
+    <Rating5 xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
+    <_x0043_M1 xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
+    <Role xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
+    <Processes xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
+    <LatestDownloads xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
+    <FolderId xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
+    <_x0043_M2 xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
+    <AccountID xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
+    <Tags xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
+    <AverageRating xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
+    <_x0043_M3 xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2340,62 +2325,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ApprovalStatus xmlns="05686ec9-621b-4d4e-b044-e44970800757">Approved</ApprovalStatus>
-    <AssociateID xmlns="05686ec9-621b-4d4e-b044-e44970800757">CTS\197602</AssociateID>
-    <UnmappedDocuments xmlns="05686ec9-621b-4d4e-b044-e44970800757">false</UnmappedDocuments>
-    <CopyToPath xmlns="05686ec9-621b-4d4e-b044-e44970800757">https://cognizant20.cognizant.com/cts/Cognizant Academy/DSC/Java Solutions/CAT 4.0 IDP Think Lab-Project Case Studies/EIM/Exercise</CopyToPath>
-    <CreatedTime xmlns="05686ec9-621b-4d4e-b044-e44970800757">2015-06-03T11:46:16+00:00</CreatedTime>
-    <MBID xmlns="05686ec9-621b-4d4e-b044-e44970800757">DS_ded283ad-3570-4264-a1a1-ea45aab841ad</MBID>
-    <ClientSupplied xmlns="05686ec9-621b-4d4e-b044-e44970800757">false</ClientSupplied>
-    <Comments xmlns="05686ec9-621b-4d4e-b044-e44970800757">CTS\197602</Comments>
-    <Work_x0020_request xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
-    <_x0043_M4 xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
-    <ViewCount xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
-    <Rating1 xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
-    <_x0043_M5 xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
-    <Rating2 xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
-    <_x0043_M6 xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
-    <Rating3 xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
-    <_x0043_M7 xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
-    <CheckedOutPath xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
-    <ProjectID xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
-    <Releases xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
-    <Phase xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
-    <_x0043_M8 xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
-    <_x0043_M9 xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
-    <Activities xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
-    <CopySource xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
-    <SubProjectID xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
-    <Functional_x0020_Module3 xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
-    <BaselinedVersions xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
-    <_x0043_M10 xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
-    <Functional_x0020_Modules xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
-    <Functional_x0020_Module2 xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
-    <ArtifactStatus xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
-    <ReasonforRejection xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
-    <FolderPath xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
-    <Rating4 xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
-    <Rating5 xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
-    <_x0043_M1 xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
-    <Role xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
-    <Processes xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
-    <LatestDownloads xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
-    <FolderId xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
-    <_x0043_M2 xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
-    <AccountID xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
-    <Tags xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
-    <AverageRating xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
-    <_x0043_M3 xmlns="05686ec9-621b-4d4e-b044-e44970800757" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDD9FEAB-FE17-42A7-98C8-A0A05954CFB4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5583E40-6C8C-44FF-A3F9-D60A21742FF3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="05686ec9-621b-4d4e-b044-e44970800757"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2419,17 +2368,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5583E40-6C8C-44FF-A3F9-D60A21742FF3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDD9FEAB-FE17-42A7-98C8-A0A05954CFB4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="05686ec9-621b-4d4e-b044-e44970800757"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>